--- a/data/export/rmse_graphs/rmse_graphs.xlsx
+++ b/data/export/rmse_graphs/rmse_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexmoran/Desktop/thesis/data/export/rmse_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C1F19-6922-3F4C-BBC1-6DD0847C955C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79AAD27C-2D69-4944-85D3-20AD7D9660D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="820" windowWidth="27640" windowHeight="16800" activeTab="2" xr2:uid="{0F3A2CF4-6689-C543-B2F2-8F95BC64D9C6}"/>
+    <workbookView xWindow="6580" yWindow="820" windowWidth="27640" windowHeight="16800" activeTab="1" xr2:uid="{0F3A2CF4-6689-C543-B2F2-8F95BC64D9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,19 @@
     <t>date</t>
   </si>
   <si>
-    <t>arima</t>
+    <t>ARIMA</t>
   </si>
   <si>
-    <t>forest</t>
+    <t>Optimized forest</t>
   </si>
   <si>
-    <t>mean</t>
+    <t>"Base" forest</t>
   </si>
   <si>
-    <t>ar1</t>
+    <t>AR(1)</t>
   </si>
   <si>
-    <t>naive</t>
+    <t>Naïve</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>arima</c:v>
+                  <c:v>ARIMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,7 +1640,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>forest</c:v>
+                  <c:v>Optimized forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3137,7 +3137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean</c:v>
+                  <c:v>"Base" forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4638,7 +4638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ar1</c:v>
+                  <c:v>AR(1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6139,7 +6139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naive</c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7861,7 +7861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>arima</c:v>
+                  <c:v>ARIMA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9358,7 +9358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>forest</c:v>
+                  <c:v>Optimized forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10855,7 +10855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean</c:v>
+                  <c:v>"Base" forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12356,7 +12356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ar1</c:v>
+                  <c:v>AR(1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13857,7 +13857,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naive</c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17032,7 +17032,7 @@
   <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:XFD243"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21886,8 +21886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A923F-B4A0-0F43-9533-1BA8B3F421DF}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:XFD243"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26741,7 +26741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD013ADF-505A-E94B-A28C-57188D93A47B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="H24" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>

--- a/data/export/rmse_graphs/rmse_graphs.xlsx
+++ b/data/export/rmse_graphs/rmse_graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexmoran/Desktop/thesis/data/export/rmse_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79AAD27C-2D69-4944-85D3-20AD7D9660D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B1D41-58D6-634B-AED3-B9B96A03E5A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6580" yWindow="820" windowWidth="27640" windowHeight="16800" activeTab="1" xr2:uid="{0F3A2CF4-6689-C543-B2F2-8F95BC64D9C6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -7665,7 +7665,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -21884,15 +21884,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A923F-B4A0-0F43-9533-1BA8B3F421DF}">
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21911,8 +21911,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -21931,8 +21949,31 @@
       <c r="F2">
         <v>2.9924375732963801E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>36526</v>
+      </c>
+      <c r="I2">
+        <f>B2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:M17" si="0">C2/$B2</f>
+        <v>0.8783959907978337</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.95866636401698757</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1.1162572801136137</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1.295894835918771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -21951,8 +21992,31 @@
       <c r="F3">
         <v>2.87961912227566E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>36557</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">B3/$B3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.8813419643217334</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.95554642540473955</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.1115153508773852</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1.2921301086697585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -21971,8 +22035,31 @@
       <c r="F4">
         <v>2.79238679241036E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>36586</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.90263542526256768</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.96949779112483914</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.1032453724166593</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.2830661794095595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -21991,8 +22078,31 @@
       <c r="F5">
         <v>2.7348120959117999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.95716381262812777</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.99613881078472599</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.0707095323674889</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.2345499463742791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -22011,8 +22121,31 @@
       <c r="F6">
         <v>3.1003181818450602E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>36647</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.93215075701273198</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.9867579242905008</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.1434556103562796</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.3109542088270085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -22031,8 +22164,31 @@
       <c r="F7">
         <v>3.0607740048699101E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>36678</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.93138143738002999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.99085468593351811</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.146984155641122</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.3326695366207333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -22051,8 +22207,31 @@
       <c r="F8">
         <v>3.1254218468435499E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>36708</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.94413111034305874</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.97623429021070207</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.1228750933479315</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1.3055429664942175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -22071,8 +22250,31 @@
       <c r="F9">
         <v>3.1151817260171399E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <v>36739</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.94820504569399022</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.97619365947075987</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.1430953045393619</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1.3366885619324111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -22091,8 +22293,31 @@
       <c r="F10">
         <v>3.1047485182102998E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>36770</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.93402568433083033</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.9907139904051715</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.1340367478414135</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.3095484247511673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -22111,8 +22336,31 @@
       <c r="F11">
         <v>3.2352711637097702E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>36800</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.94027420239780191</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.97737847476177431</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.1445226278342273</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1.3381924093355895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -22131,8 +22379,31 @@
       <c r="F12">
         <v>3.2463670932672399E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>36831</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.9318242706311054</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.97239285852072777</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.1637816287379812</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1.3616498068478795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -22151,8 +22422,31 @@
       <c r="F13">
         <v>3.1750097127581098E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>36861</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.93050132693638954</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.9762210908842387</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1.1609047427943879</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.3567726953128589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -22171,8 +22465,31 @@
       <c r="F14">
         <v>3.1103364000376601E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>36892</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.93085531075710104</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.98320808718387764</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1.1608495780641537</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1.3576515950338286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -22191,8 +22508,31 @@
       <c r="F15">
         <v>3.1232012117108402E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>36923</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.93813395480995232</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.97612565094530868</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1.1420895383727561</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1.334048457707067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -22211,8 +22551,31 @@
       <c r="F16">
         <v>3.1357973120514E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>36951</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.93199201478661831</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.9723274047132654</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.1577138894596768</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1.3568832872701739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -22231,8 +22594,31 @@
       <c r="F17">
         <v>3.0946710170448402E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>36982</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.9302244130695454</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.99015406591837318</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1.153244192509695</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1.3429527452883752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -22251,8 +22637,31 @@
       <c r="F18">
         <v>3.0464551710851499E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>37012</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J81" si="2">C18/$B18</f>
+        <v>0.93154919008817183</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K81" si="3">D18/$B18</f>
+        <v>0.99243516751653416</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L81" si="4">E18/$B18</f>
+        <v>1.1532236777125298</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M81" si="5">F18/$B18</f>
+        <v>1.3461987163809124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -22271,8 +22680,31 @@
       <c r="F19">
         <v>3.0588270648175299E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>37043</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.94484011458927775</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.99763992400505996</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>1.1521519897070842</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>1.3474818771768537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -22291,8 +22723,31 @@
       <c r="F20">
         <v>3.0516476236741E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>37073</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.94248587038100495</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.99788818787049116</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>1.1647431824759014</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>1.3638725702411021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -22311,8 +22766,31 @@
       <c r="F21">
         <v>3.08443189296364E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <v>37104</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.94361491566913325</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>1.0105847718634924</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>1.1592834427275378</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1.3334108899170785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -22331,8 +22809,31 @@
       <c r="F22">
         <v>3.0505137474491199E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <v>37135</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.94967961911608301</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>1.0209513060100146</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>1.1499206633695833</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>1.329016791608493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -22351,8 +22852,31 @@
       <c r="F23">
         <v>3.0811700079556499E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>37165</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.93530835859339168</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.99936309524990397</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>1.1372544562112621</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>1.3257875019865271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -22371,8 +22895,31 @@
       <c r="F24">
         <v>3.2487308236335802E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <v>37196</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.93346373938369354</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1.0066494345433121</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>1.1511868486707617</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1.3168107778180251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -22391,8 +22938,31 @@
       <c r="F25">
         <v>3.2244542913025002E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>37226</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.94903142001010088</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1.0238648685670064</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>1.1470764419726154</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>1.3212876559449456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -22411,8 +22981,31 @@
       <c r="F26">
         <v>3.1793548078240101E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <v>37257</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.96099813875535778</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1.0411701775081186</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>1.1471401854447072</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>1.316817072746971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -22431,8 +23024,31 @@
       <c r="F27">
         <v>3.15789710013255E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <v>37288</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.95442775782733258</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>1.0344935893417322</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>1.1408792052817236</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1.3168723807759117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -22451,8 +23067,31 @@
       <c r="F28">
         <v>3.11606883597081E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>37316</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.95280961618161786</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>1.0335141249004962</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>1.1395690995733352</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>1.3144660752320003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -22471,8 +23110,31 @@
       <c r="F29">
         <v>3.08106741799534E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>37347</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.94590184618557016</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>1.0243202923378536</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>1.1295328137255984</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1.3044889482481252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -22491,8 +23153,31 @@
       <c r="F30">
         <v>3.0537029354009699E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
+        <v>37377</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.94778910854080933</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.0208131968065783</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>1.1180385906873922</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>1.2912794723846246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -22511,8 +23196,31 @@
       <c r="F31">
         <v>3.06145665925028E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <v>37408</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0.95441959662432518</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>1.0221666908470441</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>1.1337736992112246</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>1.3078122773882124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -22531,8 +23239,31 @@
       <c r="F32">
         <v>3.0260158519987402E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <v>37438</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.95771700332983001</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>1.0260948254128439</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>1.1362391845079836</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>1.3069930239703114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -22551,8 +23282,31 @@
       <c r="F33">
         <v>3.0014175010285899E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>37469</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.95750043966435305</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>1.0257874471688688</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>1.1365293049051222</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>1.3110076384445555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -22571,8 +23325,31 @@
       <c r="F34">
         <v>2.9682695345267501E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" s="1">
+        <v>37500</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.95860217914214918</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>1.0260728219730346</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>1.1359758096824863</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>1.3108452318601367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -22591,8 +23368,31 @@
       <c r="F35">
         <v>2.9397913674163402E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="1">
+        <v>37530</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.95859726113795729</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>1.0267105311770217</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>1.1392143485527699</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>1.3125589304169218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -22611,8 +23411,31 @@
       <c r="F36">
         <v>2.90878915983909E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" s="1">
+        <v>37561</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.95866095194632439</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>1.0267202608472816</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>1.1391076355307388</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>1.3129353735361653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -22631,8 +23454,31 @@
       <c r="F37">
         <v>2.8788195266502498E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" s="1">
+        <v>37591</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0.95833009372377898</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>1.0264038327377087</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>1.1403097160642821</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1.3126750444489219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -22651,8 +23497,31 @@
       <c r="F38">
         <v>2.84867401615137E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="1">
+        <v>37622</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0.95836696570164892</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>1.0268297920908658</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>1.1408525906040428</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>1.3124501667106729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -22671,8 +23540,31 @@
       <c r="F39">
         <v>2.8464830849098698E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" s="1">
+        <v>37653</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0.95097893782203746</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>1.0141717517940947</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>1.1246688148750139</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>1.2963226730201109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -22691,8 +23583,31 @@
       <c r="F40">
         <v>2.82194004445884E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <v>37681</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0.96084512769344066</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>1.0162361724190185</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>1.1108108316051533</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>1.2781264392195457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -22711,8 +23626,31 @@
       <c r="F41">
         <v>2.8451107825080099E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="1">
+        <v>37712</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0.95573060991633585</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>1.011096832907143</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>1.1219832384691832</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>1.2932594569165949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -22731,8 +23669,31 @@
       <c r="F42">
         <v>2.9170914271501101E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="1">
+        <v>37742</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.95559459220050824</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1.0113576470113688</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>1.1060444808232581</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>1.247964061794107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -22751,8 +23712,31 @@
       <c r="F43">
         <v>2.9048419030997998E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="1">
+        <v>37773</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0.96790345443812409</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>1.0239168432430887</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>1.0982145469969482</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>1.2455990466259299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -22771,8 +23755,31 @@
       <c r="F44">
         <v>2.9017310837005901E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="1">
+        <v>37803</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0.96788210654086304</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1.0246702402347698</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>1.0996308234498988</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>1.2556895738315155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -22791,8 +23798,31 @@
       <c r="F45">
         <v>2.8901992005352399E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="1">
+        <v>37834</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0.96645231676939414</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>1.0206644285018518</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>1.0967984684871817</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>1.2555292534442219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -22811,8 +23841,31 @@
       <c r="F46">
         <v>2.8678705241419501E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="1">
+        <v>37865</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>0.96473425866956319</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.0156721462545222</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>1.0862471265604141</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>1.2431846327543465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -22831,8 +23884,31 @@
       <c r="F47">
         <v>2.8463252092730501E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="1">
+        <v>37895</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0.96356416146252954</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>1.013534881904838</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>1.0840939257039504</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>1.2412296938652123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -22851,8 +23927,31 @@
       <c r="F48">
         <v>2.8783361626818298E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <v>37926</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0.95604375358216476</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1.0072812170388312</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>1.0838764597036366</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>1.232550467040324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -22871,8 +23970,31 @@
       <c r="F49">
         <v>2.8616388478109002E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" s="1">
+        <v>37956</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0.95666771809548812</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>1.0107082626272448</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>1.0829776263307065</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>1.2348794970051251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -22891,8 +24013,31 @@
       <c r="F50">
         <v>2.8513394487072099E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" s="1">
+        <v>37987</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0.9560023253715787</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>1.0089694933170059</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>1.082457026263441</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>1.2379044571259157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -22911,8 +24056,31 @@
       <c r="F51">
         <v>2.8353219998691098E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" s="1">
+        <v>38018</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0.9508459794001537</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.99950426674990689</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>1.0706267371658813</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>1.2245872442848733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -22931,8 +24099,31 @@
       <c r="F52">
         <v>2.8256936146343098E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" s="1">
+        <v>38047</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0.95104022001823307</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>1.000132727555622</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>1.075575925268127</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>1.2303908880583745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -22951,8 +24142,31 @@
       <c r="F53">
         <v>2.8031778284956501E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" s="1">
+        <v>38078</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>0.95115030076215912</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1.000110162288923</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>1.0757905173875573</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>1.2303198955381389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -22971,8 +24185,31 @@
       <c r="F54">
         <v>2.7820048633660898E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" s="1">
+        <v>38108</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>0.95078580498947562</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>0.99976685415952216</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>1.0764283648129562</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>1.2298649323107984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -22991,8 +24228,31 @@
       <c r="F55">
         <v>2.7801348827212699E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55" s="1">
+        <v>38139</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>0.95385628991990901</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>1.0003912558168597</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>1.075477621465009</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>1.2307811011633301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -23011,8 +24271,31 @@
       <c r="F56">
         <v>2.7598152551916301E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" s="1">
+        <v>38169</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>0.95545976413813261</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>1.0000124522590155</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>1.0742725200393259</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>1.2296563382809731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -23031,8 +24314,31 @@
       <c r="F57">
         <v>2.75827073711871E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" s="1">
+        <v>38200</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.95447758275811578</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>1.0000298466365662</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>1.0795481407772562</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>1.2338538691040084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -23051,8 +24357,31 @@
       <c r="F58">
         <v>2.7386671334563698E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" s="1">
+        <v>38231</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>0.95537066868397602</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>1.0005066221107972</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>1.0791137940264355</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>1.2308938094754813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -23071,8 +24400,31 @@
       <c r="F59">
         <v>2.7372283243062199E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" s="1">
+        <v>38261</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>0.95473093441610224</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0.99971414557567184</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>1.0792800372034075</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>1.2351327185615544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -23091,8 +24443,31 @@
       <c r="F60">
         <v>2.72904832917969E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" s="1">
+        <v>38292</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>0.95947235562689936</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>1.0064423850402804</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>1.0748945059769677</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>1.2290613449144585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -23111,8 +24486,31 @@
       <c r="F61">
         <v>2.7105446566328502E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" s="1">
+        <v>38322</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>0.96215604616287043</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>1.0079332327063801</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>1.071888522305964</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>1.2259697307547308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -23131,8 +24529,31 @@
       <c r="F62">
         <v>2.7481966973404701E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" s="1">
+        <v>38353</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>0.95052961595034446</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>1.0070132729018613</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>1.0794185575429207</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>1.2326621021365647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -23151,8 +24572,31 @@
       <c r="F63">
         <v>2.7299916838740999E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" s="1">
+        <v>38384</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>0.94880648471310447</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>1.0105310227033364</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>1.0773445099042755</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>1.2264146341683442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -23171,8 +24615,31 @@
       <c r="F64">
         <v>2.7657167986643101E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" s="1">
+        <v>38412</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>0.94688115239150017</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>1.003490760013928</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>1.0793007000737325</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>1.2367916380491562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -23191,8 +24658,31 @@
       <c r="F65">
         <v>2.74791136287792E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="1">
+        <v>38443</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>0.94796936383103281</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>1.0042588088146818</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>1.0791615932554151</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>1.2368355327371032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -23211,8 +24701,31 @@
       <c r="F66">
         <v>2.73044817831185E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="1">
+        <v>38473</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>0.94975799567144947</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>1.0042698100687517</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>1.0792441902682852</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>1.2369409583354938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -23231,8 +24744,31 @@
       <c r="F67">
         <v>2.7438288137346602E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="1">
+        <v>38504</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="6">B67/$B67</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>0.94676503051556715</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>1.0020466931350527</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>1.0802316422003975</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>1.2326334237315848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -23251,8 +24787,31 @@
       <c r="F68">
         <v>2.7286903794772198E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="1">
+        <v>38534</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>0.94961995254125975</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>1.0062684491698664</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>1.0802549944797475</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>1.2336592962639661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -23271,8 +24830,31 @@
       <c r="F69">
         <v>2.7851325980748302E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="1">
+        <v>38565</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>0.94716340632658746</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>0.99584751855951936</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>1.0770692990953175</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>1.2336145694496445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -23291,8 +24873,31 @@
       <c r="F70">
         <v>2.7676740248884302E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="1">
+        <v>38596</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>0.95048290476853281</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>0.99385160663189576</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>1.0705687794970875</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>1.2250633245747458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -23311,8 +24916,31 @@
       <c r="F71">
         <v>2.8751798721503301E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="1">
+        <v>38626</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>1.0056740452252195</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>0.98309389377401257</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>1.0260664542372593</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>1.1427344772914436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -23331,8 +24959,31 @@
       <c r="F72">
         <v>3.1576979757466498E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="1">
+        <v>38657</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>0.99949134546107876</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>0.97183847051643879</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>1.0645061176467201</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>1.2272024085947026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -23351,8 +25002,31 @@
       <c r="F73">
         <v>3.2197428661096599E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="1">
+        <v>38687</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>0.9745494668800101</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>0.97356404459416723</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>1.0392402644203911</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>1.1799517813614446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -23371,8 +25045,31 @@
       <c r="F74">
         <v>3.2473314667566902E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="1">
+        <v>38718</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>0.97449088901356606</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>0.97725757882419928</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>1.041662193566262</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>1.1962871157009012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -23391,8 +25088,31 @@
       <c r="F75">
         <v>3.2939631120454099E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" s="1">
+        <v>38749</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>0.98056353160343201</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>0.9754389342258486</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>1.049221252456588</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="5"/>
+        <v>1.2087986582739485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -23411,8 +25131,31 @@
       <c r="F76">
         <v>3.3287540372217901E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H76" s="1">
+        <v>38777</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>0.97350307157825233</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>0.97568006549626685</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>1.0501959051462399</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="5"/>
+        <v>1.2116704537103553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -23431,8 +25174,31 @@
       <c r="F77">
         <v>3.31131012740815E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" s="1">
+        <v>38808</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>0.97299395165125369</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>0.97704896992465995</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>1.0495415969997914</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="5"/>
+        <v>1.211550495055927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -23451,8 +25217,31 @@
       <c r="F78">
         <v>3.31341437042104E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" s="1">
+        <v>38838</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>0.97648544787892066</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>0.97946853124347288</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>1.0510858993227719</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="5"/>
+        <v>1.214422114781184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -23471,8 +25260,31 @@
       <c r="F79">
         <v>3.3016283936915798E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" s="1">
+        <v>38869</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>0.97640241336744982</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>0.97936963966853952</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>1.0524608176386023</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="5"/>
+        <v>1.2168353339938771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -23491,8 +25303,31 @@
       <c r="F80">
         <v>3.2836650839604699E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="1">
+        <v>38899</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>0.97469835007348082</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>0.97797603765255237</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>1.0509357284097944</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="5"/>
+        <v>1.2148704635630552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -23511,8 +25346,31 @@
       <c r="F81">
         <v>3.2802359348969999E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="1">
+        <v>38930</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>0.97863224734752186</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>0.97834177953930102</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>1.0525180229701037</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="5"/>
+        <v>1.2164299770905076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -23531,8 +25389,31 @@
       <c r="F82">
         <v>3.2640596955488101E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="1">
+        <v>38961</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82:J145" si="7">C82/$B82</f>
+        <v>0.97673672333959627</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82:K145" si="8">D82/$B82</f>
+        <v>0.97802793373616626</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:L145" si="9">E82/$B82</f>
+        <v>1.0491064344881775</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ref="M82:M145" si="10">F82/$B82</f>
+        <v>1.2130599950009091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -23551,8 +25432,31 @@
       <c r="F83">
         <v>3.3879922885876701E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="1">
+        <v>38991</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>0.98645979509361026</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>0.98239183545254027</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>1.067339798393141</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="10"/>
+        <v>1.2225882122588383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -23571,8 +25475,31 @@
       <c r="F84">
         <v>3.3702731599771999E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="1">
+        <v>39022</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>0.98604733635760866</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>1.0001218223401676</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>1.0507465296688574</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="10"/>
+        <v>1.1987969782525414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -23591,8 +25518,31 @@
       <c r="F85">
         <v>3.39062812587167E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="1">
+        <v>39052</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>0.98599255577734779</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>1.002134429696101</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>1.0534914591963087</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="10"/>
+        <v>1.2123546444520572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -23611,8 +25561,31 @@
       <c r="F86">
         <v>3.41033089159832E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="1">
+        <v>39083</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>0.98441479983409241</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>0.99590727108040811</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>1.0512191212603887</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="10"/>
+        <v>1.2121393298408663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -23631,8 +25604,31 @@
       <c r="F87">
         <v>3.41426474423148E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="1">
+        <v>39114</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>0.98568930819422507</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>0.99788147289309781</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>1.0568754382621239</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="10"/>
+        <v>1.2198203473564231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -23651,8 +25647,31 @@
       <c r="F88">
         <v>3.4041479502766102E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="1">
+        <v>39142</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>0.98611921664705537</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>0.99603809281862488</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>1.0553410508274108</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="10"/>
+        <v>1.2188964816093053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -23671,8 +25690,31 @@
       <c r="F89">
         <v>3.3894923870211899E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="1">
+        <v>39173</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>0.98437439984188213</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>0.99456147447865551</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>1.0502475750635156</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="10"/>
+        <v>1.212337291242706</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -23691,8 +25733,31 @@
       <c r="F90">
         <v>3.3796085563913198E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="1">
+        <v>39203</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>0.98437464695043997</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>0.99456316573222547</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>1.0516674036535418</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="10"/>
+        <v>1.2148903627163212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -23711,8 +25776,31 @@
       <c r="F91">
         <v>3.36470980097769E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="1">
+        <v>39234</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>0.98266504352972872</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>0.99300511012927595</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>1.0496855734293915</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="10"/>
+        <v>1.2125860740541647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -23731,8 +25819,31 @@
       <c r="F92">
         <v>3.3529706478957599E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="1">
+        <v>39264</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>0.98290482113877076</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>0.99348601983855878</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>1.05111835782955</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="10"/>
+        <v>1.2143159778702521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -23751,8 +25862,31 @@
       <c r="F93">
         <v>3.3370708768051798E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="1">
+        <v>39295</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>0.98283640012211781</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>0.99333923445222017</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>1.0513104899560253</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="10"/>
+        <v>1.214079858383059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -23771,8 +25905,31 @@
       <c r="F94">
         <v>3.3241186244273601E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="1">
+        <v>39326</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>0.9831471437553686</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>0.99481174146046691</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>1.0518728637782937</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="10"/>
+        <v>1.212879232102501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -23791,8 +25948,31 @@
       <c r="F95">
         <v>3.3303007145981701E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="1">
+        <v>39356</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>0.98253042865806162</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>0.99194398880126067</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>1.0515569247866372</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="10"/>
+        <v>1.2151468081574024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -23811,8 +25991,31 @@
       <c r="F96">
         <v>3.3164364010963001E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="1">
+        <v>39387</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>0.98184666156030143</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>0.99122408797639738</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>1.0511923559928404</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="10"/>
+        <v>1.2149352180889503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -23831,8 +26034,31 @@
       <c r="F97">
         <v>3.33268562909284E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="1">
+        <v>39417</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>0.98810667328783319</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>0.99273504382699795</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>1.0514109317093652</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="10"/>
+        <v>1.2120194582256509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -23851,8 +26077,31 @@
       <c r="F98">
         <v>3.35102889492373E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="1">
+        <v>39448</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>0.98776663951506039</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>0.99416113992177579</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>1.0566575149257325</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="10"/>
+        <v>1.2231593182632587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -23871,8 +26120,31 @@
       <c r="F99">
         <v>3.3360346648219101E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="1">
+        <v>39479</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>0.98795517482300443</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>0.9938279669407285</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="9"/>
+        <v>1.0563786607437007</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="10"/>
+        <v>1.222896850723316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -23891,8 +26163,31 @@
       <c r="F100">
         <v>3.3222792413615202E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="1">
+        <v>39508</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>0.98733017418380953</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>0.99337510787917993</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="9"/>
+        <v>1.0562404951994164</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="10"/>
+        <v>1.22259046796018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -23911,8 +26206,31 @@
       <c r="F101">
         <v>3.3091020544594599E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="1">
+        <v>39539</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>0.98758398824931104</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>0.99326463076467553</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="9"/>
+        <v>1.0561571655697126</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="10"/>
+        <v>1.2227392686278657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -23931,8 +26249,31 @@
       <c r="F102">
         <v>3.29644667621001E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="1">
+        <v>39569</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>0.9873497342018237</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>0.99300657001188242</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="9"/>
+        <v>1.056581071779817</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="10"/>
+        <v>1.2230807496370886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -23951,8 +26292,31 @@
       <c r="F103">
         <v>3.2991431144860001E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="1">
+        <v>39600</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>0.98897075928380296</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>0.99388315622764212</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="9"/>
+        <v>1.0564082197432285</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="10"/>
+        <v>1.2225021934174669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -23971,8 +26335,31 @@
       <c r="F104">
         <v>3.3118534833227599E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="1">
+        <v>39630</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>0.99606800163800502</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>1.0030692617950319</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="9"/>
+        <v>1.0495929921680682</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="10"/>
+        <v>1.2051881669023343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -23991,8 +26378,31 @@
       <c r="F105">
         <v>3.3118169838485898E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="1">
+        <v>39661</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>0.99727176284349384</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>1.0046587710308175</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="9"/>
+        <v>1.0483573997207551</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="10"/>
+        <v>1.2087293217445405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -24011,8 +26421,31 @@
       <c r="F106">
         <v>3.3929342928659899E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="1">
+        <v>39692</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>0.98874190889889213</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>1.0109870972483623</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="9"/>
+        <v>1.04828801910883</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="10"/>
+        <v>1.2108671156820421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -24031,8 +26464,31 @@
       <c r="F107">
         <v>3.3853482127897401E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" s="1">
+        <v>39722</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>0.98698998714988395</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>1.0131902143832323</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="9"/>
+        <v>1.0463586056044181</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="10"/>
+        <v>1.2109744241364413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -24051,8 +26507,31 @@
       <c r="F108">
         <v>3.48234622788733E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" s="1">
+        <v>39753</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>0.96542414744100546</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>0.99878695492526248</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="9"/>
+        <v>1.014614462817591</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="10"/>
+        <v>1.1518345998823223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -24071,8 +26550,31 @@
       <c r="F109">
         <v>3.5693837710968502E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" s="1">
+        <v>39783</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>0.96963366675051998</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>1.047991327798828</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="9"/>
+        <v>0.97487132064841808</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="10"/>
+        <v>1.0533161590618279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -24091,8 +26593,31 @@
       <c r="F110">
         <v>3.6608425282640099E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" s="1">
+        <v>39814</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>0.96630832530470645</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>1.0838386624718213</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="9"/>
+        <v>0.97318672383561577</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="10"/>
+        <v>1.0808110584987844</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -24111,8 +26636,31 @@
       <c r="F111">
         <v>3.7754623820519498E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" s="1">
+        <v>39845</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>0.97310687220769421</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>1.0757518340626915</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="9"/>
+        <v>0.98241483225313564</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="10"/>
+        <v>1.1109189374026651</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -24131,8 +26679,31 @@
       <c r="F112">
         <v>3.7612963856398299E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" s="1">
+        <v>39873</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>0.97057502794736594</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="8"/>
+        <v>1.0725388782807674</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="9"/>
+        <v>0.9794522999931744</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="10"/>
+        <v>1.1076850824190392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -24151,8 +26722,31 @@
       <c r="F113">
         <v>3.7691046203704899E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H113" s="1">
+        <v>39904</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>0.97493440337742188</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="8"/>
+        <v>1.0762819713678562</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="9"/>
+        <v>0.9857335119972761</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="10"/>
+        <v>1.113337396194757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -24171,8 +26765,31 @@
       <c r="F114">
         <v>3.75814580093217E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" s="1">
+        <v>39934</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>0.973904899692979</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="8"/>
+        <v>1.0758468457339296</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="9"/>
+        <v>0.9846753154733664</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="10"/>
+        <v>1.1133343793445092</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -24191,8 +26808,31 @@
       <c r="F115">
         <v>3.7433129360450899E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" s="1">
+        <v>39965</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>0.97285708172658913</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="8"/>
+        <v>1.0748960059100727</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="9"/>
+        <v>0.98366527913828206</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="10"/>
+        <v>1.1122033404809313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -24211,8 +26851,31 @@
       <c r="F116">
         <v>3.7772504896774499E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" s="1">
+        <v>39995</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>0.96448057135440679</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="8"/>
+        <v>1.0599182149681379</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="9"/>
+        <v>0.973179816753027</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="10"/>
+        <v>1.0997919380322125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -24231,8 +26894,31 @@
       <c r="F117">
         <v>3.8383185908144901E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H117" s="1">
+        <v>40026</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>0.96979056002245301</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="8"/>
+        <v>1.0605331695056379</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="9"/>
+        <v>0.98358441392136209</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="10"/>
+        <v>1.1161512727623377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -24251,8 +26937,31 @@
       <c r="F118">
         <v>3.8368154026592102E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" s="1">
+        <v>40057</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>0.96998981958904884</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="8"/>
+        <v>1.0586346582185424</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="9"/>
+        <v>0.98359316141360342</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="10"/>
+        <v>1.1180781547208436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -24271,8 +26980,31 @@
       <c r="F119">
         <v>3.8239417536537999E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" s="1">
+        <v>40087</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>0.97017013370581562</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="8"/>
+        <v>1.05863329741537</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="9"/>
+        <v>0.98423537472137279</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="10"/>
+        <v>1.1186523900380063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -24291,8 +27023,31 @@
       <c r="F120">
         <v>3.8103582892163798E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" s="1">
+        <v>40118</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>0.97048737944267838</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="8"/>
+        <v>1.0590357401964572</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="9"/>
+        <v>0.98433372947310005</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="10"/>
+        <v>1.1189839852118313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -24311,8 +27066,31 @@
       <c r="F121">
         <v>3.7959071477799899E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" s="1">
+        <v>40148</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>0.97070287503904717</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="8"/>
+        <v>1.0594468059522779</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="9"/>
+        <v>0.98434707340892458</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="10"/>
+        <v>1.1190137771463777</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -24331,8 +27109,31 @@
       <c r="F122">
         <v>3.7894754853159498E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H122" s="1">
+        <v>40179</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>0.97101663801795768</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="8"/>
+        <v>1.0588789180391218</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="9"/>
+        <v>0.98566719760646382</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="10"/>
+        <v>1.1198634537171896</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -24351,8 +27152,31 @@
       <c r="F123">
         <v>3.7752188954099999E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H123" s="1">
+        <v>40210</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>0.97117453135092324</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="8"/>
+        <v>1.0596862808634424</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="9"/>
+        <v>0.98592850804967047</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="10"/>
+        <v>1.1198492437234264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -24371,8 +27195,31 @@
       <c r="F124">
         <v>3.7636471488419099E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" s="1">
+        <v>40238</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>0.97198852441929517</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="8"/>
+        <v>1.0622610961934356</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="9"/>
+        <v>0.98705795277375119</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="10"/>
+        <v>1.1193398458929544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -24391,8 +27238,31 @@
       <c r="F125">
         <v>3.7513087339198798E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H125" s="1">
+        <v>40269</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>0.97200427972390602</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="8"/>
+        <v>1.0633805439406339</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="9"/>
+        <v>0.98707249717180312</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="10"/>
+        <v>1.1198085645275273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -24411,8 +27281,31 @@
       <c r="F126">
         <v>3.7375018058634401E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" s="1">
+        <v>40299</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>0.97225778852567624</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="8"/>
+        <v>1.0648891350867566</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="9"/>
+        <v>0.98747789262361219</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="10"/>
+        <v>1.1197255660735836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -24431,8 +27324,31 @@
       <c r="F127">
         <v>3.7243874406551998E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" s="1">
+        <v>40330</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>0.97298165935357661</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="8"/>
+        <v>1.067435132774083</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="9"/>
+        <v>0.98843081427552537</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="10"/>
+        <v>1.1196296711798328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -24451,8 +27367,31 @@
       <c r="F128">
         <v>3.7108787130969698E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H128" s="1">
+        <v>40360</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>0.97332040856656643</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="8"/>
+        <v>1.0692144729678141</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="9"/>
+        <v>0.98887147728444691</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="10"/>
+        <v>1.1194876480300791</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -24471,8 +27410,31 @@
       <c r="F129">
         <v>3.7025883032112202E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H129" s="1">
+        <v>40391</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>0.97321459001998589</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="8"/>
+        <v>1.0686782776980313</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="9"/>
+        <v>0.98865437076471097</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="10"/>
+        <v>1.1204589263394242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -24491,8 +27453,31 @@
       <c r="F130">
         <v>3.6895015937569698E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H130" s="1">
+        <v>40422</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>0.97327504310468693</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="8"/>
+        <v>1.0688271659608348</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="9"/>
+        <v>0.98893633133422909</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="10"/>
+        <v>1.1205057939389949</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -24511,8 +27496,31 @@
       <c r="F131">
         <v>3.67641774615798E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H131" s="1">
+        <v>40452</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="11">B131/$B131</f>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="7"/>
+        <v>0.97320435590164445</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="8"/>
+        <v>1.0688542023758663</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="9"/>
+        <v>0.98894991541043475</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="10"/>
+        <v>1.1204293589607104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -24531,8 +27539,31 @@
       <c r="F132">
         <v>3.6667800511395801E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" s="1">
+        <v>40483</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="7"/>
+        <v>0.97354657210051954</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>1.0685984844919854</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="9"/>
+        <v>0.98879731916899494</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="10"/>
+        <v>1.1206809363842198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -24551,8 +27582,31 @@
       <c r="F133">
         <v>3.6547913899470401E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" s="1">
+        <v>40513</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="7"/>
+        <v>0.97334390973406493</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="8"/>
+        <v>1.0683924583925113</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="9"/>
+        <v>0.9888334468517177</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="10"/>
+        <v>1.1207040107742712</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -24571,8 +27625,31 @@
       <c r="F134">
         <v>3.6441607470651801E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" s="1">
+        <v>40544</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="7"/>
+        <v>0.97328028865663041</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="8"/>
+        <v>1.0680376284774293</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="9"/>
+        <v>0.98813359222690922</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="10"/>
+        <v>1.1200000760733786</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -24591,8 +27668,31 @@
       <c r="F135">
         <v>3.63213694306125E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H135" s="1">
+        <v>40575</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="7"/>
+        <v>0.972826430014198</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="8"/>
+        <v>1.0677604092014585</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="9"/>
+        <v>0.987719069684171</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="10"/>
+        <v>1.119614540062644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -24611,8 +27711,31 @@
       <c r="F136">
         <v>3.61967751247306E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H136" s="1">
+        <v>40603</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="7"/>
+        <v>0.97270762454082216</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>1.0676851484740677</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="9"/>
+        <v>0.98746294951156832</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="10"/>
+        <v>1.1193240244052434</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -24631,8 +27754,31 @@
       <c r="F137">
         <v>3.61093154458015E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H137" s="1">
+        <v>40634</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="7"/>
+        <v>0.97280164294312421</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>1.0677318287320616</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="9"/>
+        <v>0.98651367814914825</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="10"/>
+        <v>1.1179550940040974</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -24651,8 +27797,31 @@
       <c r="F138">
         <v>3.5989254524768401E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H138" s="1">
+        <v>40664</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="7"/>
+        <v>0.97261243170570233</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>1.0682968673821447</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="9"/>
+        <v>0.98592952109210352</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="10"/>
+        <v>1.1173391711314533</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -24671,8 +27840,31 @@
       <c r="F139">
         <v>3.5889507276068901E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H139" s="1">
+        <v>40695</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="7"/>
+        <v>0.97261862917007536</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>1.0684640600298743</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="9"/>
+        <v>0.98623773625257549</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="10"/>
+        <v>1.1179938539155121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -24691,8 +27883,31 @@
       <c r="F140">
         <v>3.5863590862183401E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H140" s="1">
+        <v>40725</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="7"/>
+        <v>0.97352022054649889</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>1.0688830006837686</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="9"/>
+        <v>0.98822772989577268</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="10"/>
+        <v>1.119343998771273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -24711,8 +27926,31 @@
       <c r="F141">
         <v>3.5808008787312599E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H141" s="1">
+        <v>40756</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="7"/>
+        <v>0.97410782740097801</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>1.0685712004565615</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="9"/>
+        <v>0.98857386901196642</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="10"/>
+        <v>1.1209826364665423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -24731,8 +27969,31 @@
       <c r="F142">
         <v>3.5692642091629898E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H142" s="1">
+        <v>40787</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="7"/>
+        <v>0.97416194250682597</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>1.0684156033683714</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="9"/>
+        <v>0.98841507057257638</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="10"/>
+        <v>1.120852165928413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -24751,8 +28012,31 @@
       <c r="F143">
         <v>3.55846348094309E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H143" s="1">
+        <v>40817</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="7"/>
+        <v>0.97411336510761803</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>1.0684323079328131</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="9"/>
+        <v>0.98864921067584899</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="10"/>
+        <v>1.1210099675123661</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -24771,8 +28055,31 @@
       <c r="F144">
         <v>3.5489343687175401E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H144" s="1">
+        <v>40848</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="7"/>
+        <v>0.97407252642909226</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>1.0687536658787824</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="9"/>
+        <v>0.98912506402233047</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="10"/>
+        <v>1.1208570648050433</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -24791,8 +28098,31 @@
       <c r="F145">
         <v>3.5387182311947601E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H145" s="1">
+        <v>40878</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="7"/>
+        <v>0.97416098175177968</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>1.0688723301590715</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="9"/>
+        <v>0.98913685101407267</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="10"/>
+        <v>1.1212495213658173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -24811,8 +28141,31 @@
       <c r="F146">
         <v>3.5297079853620502E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H146" s="1">
+        <v>40909</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146:J209" si="12">C146/$B146</f>
+        <v>0.97400227080062018</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ref="K146:K209" si="13">D146/$B146</f>
+        <v>1.0689742286095822</v>
+      </c>
+      <c r="L146">
+        <f t="shared" ref="L146:L209" si="14">E146/$B146</f>
+        <v>0.98952601832806764</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ref="M146:M209" si="15">F146/$B146</f>
+        <v>1.1207596381422098</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -24831,8 +28184,31 @@
       <c r="F147">
         <v>3.52402415011894E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H147" s="1">
+        <v>40940</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="12"/>
+        <v>0.97421413162777037</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="13"/>
+        <v>1.0681972639947681</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="14"/>
+        <v>0.98941401550322661</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="15"/>
+        <v>1.1217164363425978</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -24851,8 +28227,31 @@
       <c r="F148">
         <v>3.5131630982773599E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H148" s="1">
+        <v>40969</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="12"/>
+        <v>0.97420727558529563</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="13"/>
+        <v>1.0683027416229844</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="14"/>
+        <v>0.98959047871062178</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="15"/>
+        <v>1.1217910756583664</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -24871,8 +28270,31 @@
       <c r="F149">
         <v>3.5020997193281802E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H149" s="1">
+        <v>41000</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="12"/>
+        <v>0.97419228415644898</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="13"/>
+        <v>1.0682962234857227</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="14"/>
+        <v>0.98964127025037352</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="15"/>
+        <v>1.1217727314965633</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -24891,8 +28313,31 @@
       <c r="F150">
         <v>3.4913054520220601E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H150" s="1">
+        <v>41030</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="12"/>
+        <v>0.9742113565055478</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="13"/>
+        <v>1.068383879317899</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="14"/>
+        <v>0.98985747856780648</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="15"/>
+        <v>1.1217991159870071</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -24911,8 +28356,31 @@
       <c r="F151">
         <v>3.4928365968716498E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H151" s="1">
+        <v>41061</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="12"/>
+        <v>0.97393545503474255</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="13"/>
+        <v>1.0687506954687891</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="14"/>
+        <v>0.99068006428054545</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="15"/>
+        <v>1.1198858298148515</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -24931,8 +28399,31 @@
       <c r="F152">
         <v>3.4834101439861899E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H152" s="1">
+        <v>41091</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="12"/>
+        <v>0.97361607767742919</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="13"/>
+        <v>1.0706982296923093</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="14"/>
+        <v>0.99038828851509975</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="15"/>
+        <v>1.1198073033510436</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -24951,8 +28442,31 @@
       <c r="F153">
         <v>3.47380731135318E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H153" s="1">
+        <v>41122</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="12"/>
+        <v>0.97362185105154275</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="13"/>
+        <v>1.0720113725068812</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="14"/>
+        <v>0.99043353322658767</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="15"/>
+        <v>1.1201594863033315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -24971,8 +28485,31 @@
       <c r="F154">
         <v>3.4897667734046199E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H154" s="1">
+        <v>41153</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="12"/>
+        <v>0.97370230630892585</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="13"/>
+        <v>1.067725119658016</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="14"/>
+        <v>0.98918901574889007</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="15"/>
+        <v>1.1202349236551656</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -24991,8 +28528,31 @@
       <c r="F155">
         <v>3.4801045797876202E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H155" s="1">
+        <v>41183</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="12"/>
+        <v>0.97330187913604738</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="13"/>
+        <v>1.0685094981456551</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="14"/>
+        <v>0.98853966260308368</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="15"/>
+        <v>1.119796597562813</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -25011,8 +28571,31 @@
       <c r="F156">
         <v>3.4733126942111301E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H156" s="1">
+        <v>41214</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="12"/>
+        <v>0.97341433778596531</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="13"/>
+        <v>1.0684779225695915</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="14"/>
+        <v>0.98920608822131595</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="15"/>
+        <v>1.1209482305912153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -25031,8 +28614,31 @@
       <c r="F157">
         <v>3.47939939255996E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H157" s="1">
+        <v>41244</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="12"/>
+        <v>0.97385708329861431</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="13"/>
+        <v>1.0685585444424772</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="14"/>
+        <v>0.99110904197251826</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="15"/>
+        <v>1.1209756304628924</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -25051,8 +28657,31 @@
       <c r="F158">
         <v>3.4711149266351102E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H158" s="1">
+        <v>41275</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="12"/>
+        <v>0.97377627436126935</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="13"/>
+        <v>1.0697638542740828</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="14"/>
+        <v>0.9910446703170499</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="15"/>
+        <v>1.121552700637682</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -25071,8 +28700,31 @@
       <c r="F159">
         <v>3.4645977785557102E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H159" s="1">
+        <v>41306</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="12"/>
+        <v>0.97376116878368046</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="13"/>
+        <v>1.0692483674249331</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="14"/>
+        <v>0.99077056473295211</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="15"/>
+        <v>1.1221991590306259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -25091,8 +28743,31 @@
       <c r="F160">
         <v>3.4644326274820402E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H160" s="1">
+        <v>41334</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="12"/>
+        <v>0.97383343068936956</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="13"/>
+        <v>1.0675104496389498</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="14"/>
+        <v>0.98954700331132128</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="15"/>
+        <v>1.1209298966276824</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -25111,8 +28786,31 @@
       <c r="F161">
         <v>3.5111694656103898E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H161" s="1">
+        <v>41365</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="12"/>
+        <v>0.97659298781868442</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="13"/>
+        <v>1.0645286699458241</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="14"/>
+        <v>0.99589392834238655</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="15"/>
+        <v>1.1274209406396862</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -25131,8 +28829,31 @@
       <c r="F162">
         <v>3.5013849835813901E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H162" s="1">
+        <v>41395</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="12"/>
+        <v>0.9763894295710801</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="13"/>
+        <v>1.0687851778401587</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="14"/>
+        <v>0.99570143734116745</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="15"/>
+        <v>1.126538785658026</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -25151,8 +28872,31 @@
       <c r="F163">
         <v>3.4964383426247798E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H163" s="1">
+        <v>41426</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="12"/>
+        <v>0.97651227142625341</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="13"/>
+        <v>1.0695447009412922</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="14"/>
+        <v>0.9957825649726495</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="15"/>
+        <v>1.1282090979348163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -25171,8 +28915,31 @@
       <c r="F164">
         <v>3.4895528795979799E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H164" s="1">
+        <v>41456</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="12"/>
+        <v>0.97670639187056085</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="13"/>
+        <v>1.0691716653941006</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="14"/>
+        <v>0.9956838789331075</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="15"/>
+        <v>1.1288316214979703</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -25191,8 +28958,31 @@
       <c r="F165">
         <v>3.47971469793374E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H165" s="1">
+        <v>41487</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="12"/>
+        <v>0.97666577783940645</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="13"/>
+        <v>1.0692065748117798</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="14"/>
+        <v>0.995800840579394</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="15"/>
+        <v>1.128831591544295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -25211,8 +29001,31 @@
       <c r="F166">
         <v>3.4699656774216498E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H166" s="1">
+        <v>41518</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="12"/>
+        <v>0.97610235337761864</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="13"/>
+        <v>1.0684752852501453</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="14"/>
+        <v>0.99511600168890824</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="15"/>
+        <v>1.1281038732326263</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -25231,8 +29044,31 @@
       <c r="F167">
         <v>3.4634384326066498E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H167" s="1">
+        <v>41548</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="12"/>
+        <v>0.97648633041848976</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="13"/>
+        <v>1.0691268574390829</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="14"/>
+        <v>0.99627628005225022</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="15"/>
+        <v>1.1286727515092623</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -25251,8 +29087,31 @@
       <c r="F168">
         <v>3.45371632941583E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H168" s="1">
+        <v>41579</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="12"/>
+        <v>0.97648889665718708</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="13"/>
+        <v>1.0697632024806665</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="14"/>
+        <v>0.99643795022705728</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="15"/>
+        <v>1.1285921204012461</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -25271,8 +29130,31 @@
       <c r="F169">
         <v>3.44544224906854E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H169" s="1">
+        <v>41609</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="12"/>
+        <v>0.97657280241971411</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="13"/>
+        <v>1.0697560556674188</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="14"/>
+        <v>0.9963887619700319</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="15"/>
+        <v>1.1289556994333469</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -25291,8 +29173,31 @@
       <c r="F170">
         <v>3.4363728997793899E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H170" s="1">
+        <v>41640</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="12"/>
+        <v>0.97659726066304386</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="13"/>
+        <v>1.0695088543052889</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="14"/>
+        <v>0.99616811460335164</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="15"/>
+        <v>1.1288442078122416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -25311,8 +29216,31 @@
       <c r="F171">
         <v>3.4269058254268298E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H171" s="1">
+        <v>41671</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="12"/>
+        <v>0.9764368657901954</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="13"/>
+        <v>1.0692984417716629</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="14"/>
+        <v>0.99602125387256157</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="15"/>
+        <v>1.12863093309384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -25331,8 +29259,31 @@
       <c r="F172">
         <v>3.4188809476989701E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H172" s="1">
+        <v>41699</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="12"/>
+        <v>0.97664051155687848</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="13"/>
+        <v>1.0697791013284288</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="14"/>
+        <v>0.99675696711413697</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="15"/>
+        <v>1.1290537187808931</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -25351,8 +29302,31 @@
       <c r="F173">
         <v>3.4102346489137702E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H173" s="1">
+        <v>41730</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="12"/>
+        <v>0.97676946705073897</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="13"/>
+        <v>1.0697713452868729</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="14"/>
+        <v>0.99675805925234462</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="15"/>
+        <v>1.1292797772323948</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -25371,8 +29345,31 @@
       <c r="F174">
         <v>3.4009802618263402E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H174" s="1">
+        <v>41760</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="12"/>
+        <v>0.97676900392039268</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="13"/>
+        <v>1.0698455701655107</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="14"/>
+        <v>0.99686475420847487</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="15"/>
+        <v>1.1292866922604454</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -25391,8 +29388,31 @@
       <c r="F175">
         <v>3.3917771645311798E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H175" s="1">
+        <v>41791</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="12"/>
+        <v>0.97677415663518963</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="13"/>
+        <v>1.0699037619610812</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="14"/>
+        <v>0.99692183311801186</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="15"/>
+        <v>1.1292831521952031</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -25411,8 +29431,31 @@
       <c r="F176">
         <v>3.3829153853244501E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H176" s="1">
+        <v>41821</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="12"/>
+        <v>0.97679689307385642</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="13"/>
+        <v>1.0701637842703096</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="14"/>
+        <v>0.99721824135267079</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="15"/>
+        <v>1.1293309110179028</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -25431,8 +29474,31 @@
       <c r="F177">
         <v>3.3738882930635199E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H177" s="1">
+        <v>41852</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="12"/>
+        <v>0.97681102541631881</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="13"/>
+        <v>1.0705576221997148</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="14"/>
+        <v>0.99742318094838578</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="15"/>
+        <v>1.1293084870736572</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -25451,8 +29517,31 @@
       <c r="F178">
         <v>3.3662078039221198E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H178" s="1">
+        <v>41883</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="12"/>
+        <v>0.97725714745666237</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="13"/>
+        <v>1.071957709630917</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="14"/>
+        <v>0.99839458153741245</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="15"/>
+        <v>1.1294284212858456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -25471,8 +29560,31 @@
       <c r="F179">
         <v>3.3573329486800102E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H179" s="1">
+        <v>41913</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="12"/>
+        <v>0.97725310907868135</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="13"/>
+        <v>1.0729967041904567</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="14"/>
+        <v>0.998540296761945</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="15"/>
+        <v>1.1292664213326515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -25491,8 +29603,31 @@
       <c r="F180">
         <v>3.3485432951624299E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H180" s="1">
+        <v>41944</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="12"/>
+        <v>0.97726559304177574</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="13"/>
+        <v>1.0741629853200747</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="14"/>
+        <v>0.99878442398840539</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="15"/>
+        <v>1.1288842045754295</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -25511,8 +29646,31 @@
       <c r="F181">
         <v>3.3419946577538302E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H181" s="1">
+        <v>41974</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="12"/>
+        <v>0.97713457495291067</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="13"/>
+        <v>1.0764381442906945</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="14"/>
+        <v>0.99903066129121143</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="15"/>
+        <v>1.1270234676180555</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -25531,8 +29689,31 @@
       <c r="F182">
         <v>3.3344142955038601E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H182" s="1">
+        <v>42005</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="12"/>
+        <v>0.97772625203984753</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="13"/>
+        <v>1.081177720191278</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="14"/>
+        <v>0.99950297564037327</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="15"/>
+        <v>1.1247953154891872</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -25551,8 +29732,31 @@
       <c r="F183">
         <v>3.3342436528052098E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H183" s="1">
+        <v>42036</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="12"/>
+        <v>0.97903188900129701</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="13"/>
+        <v>1.088265514846851</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="14"/>
+        <v>1.0005198681739003</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="15"/>
+        <v>1.1184946243587774</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -25571,8 +29775,31 @@
       <c r="F184">
         <v>3.3867695070669899E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H184" s="1">
+        <v>42064</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="12"/>
+        <v>0.98231767319780317</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="13"/>
+        <v>1.0796949014633292</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="14"/>
+        <v>1.0006380785613833</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="15"/>
+        <v>1.129381428599824</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -25591,8 +29818,31 @@
       <c r="F185">
         <v>3.3780934841009598E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H185" s="1">
+        <v>42095</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="12"/>
+        <v>0.98212833221034834</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="13"/>
+        <v>1.0793355909072186</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="14"/>
+        <v>1.0002553886308259</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="15"/>
+        <v>1.1289549108757115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -25611,8 +29861,31 @@
       <c r="F186">
         <v>3.3715214434336801E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H186" s="1">
+        <v>42125</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="12"/>
+        <v>0.9823184595513994</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="13"/>
+        <v>1.0796472628360534</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="14"/>
+        <v>1.0011558187854759</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="15"/>
+        <v>1.1296097429130443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -25631,8 +29904,31 @@
       <c r="F187">
         <v>3.3667732738219E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H187" s="1">
+        <v>42156</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="12"/>
+        <v>0.98121479041855941</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="13"/>
+        <v>1.0773826433454008</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="14"/>
+        <v>0.99936415782794097</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="15"/>
+        <v>1.1281567934374672</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -25651,8 +29947,31 @@
       <c r="F188">
         <v>3.3584703616498998E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H188" s="1">
+        <v>42186</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="12"/>
+        <v>0.98089598098926056</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="13"/>
+        <v>1.0769806952857874</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="14"/>
+        <v>0.99900663625218133</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="15"/>
+        <v>1.1277560318811317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -25671,8 +29990,31 @@
       <c r="F189">
         <v>3.3510638147991999E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H189" s="1">
+        <v>42217</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="12"/>
+        <v>0.98095527141228378</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="13"/>
+        <v>1.0771610572614618</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="14"/>
+        <v>0.99949169648665814</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="15"/>
+        <v>1.1281062357864742</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -25691,8 +30033,31 @@
       <c r="F190">
         <v>3.3445641491238998E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H190" s="1">
+        <v>42248</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="12"/>
+        <v>0.98127096686159432</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="13"/>
+        <v>1.0781816732732006</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="14"/>
+        <v>1.0004919680398967</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="15"/>
+        <v>1.1283827391027643</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -25711,8 +30076,31 @@
       <c r="F191">
         <v>3.3399928563738802E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H191" s="1">
+        <v>42278</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="12"/>
+        <v>0.98151541963834688</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="13"/>
+        <v>1.0810545060651788</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="14"/>
+        <v>1.0013724300997044</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="15"/>
+        <v>1.1269622797425507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -25731,8 +30119,31 @@
       <c r="F192">
         <v>3.3395009421373898E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H192" s="1">
+        <v>42309</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="12"/>
+        <v>0.98154812274466963</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="13"/>
+        <v>1.0805398212255062</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="14"/>
+        <v>1.001292886163784</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="15"/>
+        <v>1.1289927479316966</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -25751,8 +30162,31 @@
       <c r="F193">
         <v>3.3312964608892899E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H193" s="1">
+        <v>42339</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="12"/>
+        <v>0.98154566975174828</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="13"/>
+        <v>1.0809493551472886</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="14"/>
+        <v>1.0013811734246554</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="15"/>
+        <v>1.128999158192167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -25771,8 +30205,31 @@
       <c r="F194">
         <v>3.3269199802793202E-3</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H194" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="12"/>
+        <v>0.98172213420105758</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="13"/>
+        <v>1.0824378106679151</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="14"/>
+        <v>1.0024906679670313</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="15"/>
+        <v>1.1287352812674085</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -25791,8 +30248,31 @@
       <c r="F195">
         <v>3.3201420451753499E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H195" s="1">
+        <v>42401</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ref="I195:I242" si="16">B195/$B195</f>
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="12"/>
+        <v>0.98172205762598774</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="13"/>
+        <v>1.0830110801058235</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="14"/>
+        <v>1.002499461302548</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="15"/>
+        <v>1.1291929810555339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -25811,8 +30291,31 @@
       <c r="F196">
         <v>3.3139362893621601E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H196" s="1">
+        <v>42430</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="12"/>
+        <v>0.98268640433383936</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="13"/>
+        <v>1.0856929663922728</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="14"/>
+        <v>1.0040553237677523</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="15"/>
+        <v>1.1293983216143064</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -25831,8 +30334,31 @@
       <c r="F197">
         <v>3.31396094631168E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H197" s="1">
+        <v>42461</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="12"/>
+        <v>0.98202855682560053</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="13"/>
+        <v>1.0838665030097894</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="14"/>
+        <v>1.0031731795972061</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="15"/>
+        <v>1.1302297744163396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -25851,8 +30377,31 @@
       <c r="F198">
         <v>3.3077139978201402E-3</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H198" s="1">
+        <v>42491</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="12"/>
+        <v>0.9815931137157986</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="13"/>
+        <v>1.0824779655703314</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="14"/>
+        <v>1.0018529258630031</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="15"/>
+        <v>1.1289165968810346</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -25871,8 +30420,31 @@
       <c r="F199">
         <v>3.3005371957800498E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H199" s="1">
+        <v>42522</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="12"/>
+        <v>0.98136666266029104</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="13"/>
+        <v>1.082193361661878</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="14"/>
+        <v>1.0017672468797811</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="15"/>
+        <v>1.1288543711879417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -25891,8 +30463,31 @@
       <c r="F200">
         <v>3.2927885607561599E-3</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H200" s="1">
+        <v>42552</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="12"/>
+        <v>0.98106026700556881</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="13"/>
+        <v>1.0815015376539279</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="14"/>
+        <v>1.0010554861056438</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="15"/>
+        <v>1.1280795667307468</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -25911,8 +30506,31 @@
       <c r="F201">
         <v>3.2917828768769899E-3</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H201" s="1">
+        <v>42583</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="12"/>
+        <v>0.98123504833604169</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="13"/>
+        <v>1.0821272867157716</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="14"/>
+        <v>1.0027443716056683</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="15"/>
+        <v>1.1292604179656431</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -25931,8 +30549,31 @@
       <c r="F202">
         <v>3.2873316388418801E-3</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H202" s="1">
+        <v>42614</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="12"/>
+        <v>0.98130020768139392</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="13"/>
+        <v>1.081619047254577</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="14"/>
+        <v>1.0025334275525277</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="15"/>
+        <v>1.1298693138888152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -25951,8 +30592,31 @@
       <c r="F203">
         <v>3.2796075856708498E-3</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H203" s="1">
+        <v>42644</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="12"/>
+        <v>0.9813410658247016</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="13"/>
+        <v>1.081617378999066</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="14"/>
+        <v>1.0025821097359193</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="15"/>
+        <v>1.1298650052949455</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -25971,8 +30635,31 @@
       <c r="F204">
         <v>3.2720560570448699E-3</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H204" s="1">
+        <v>42675</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="12"/>
+        <v>0.98133043414006071</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="13"/>
+        <v>1.0813810160185906</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="14"/>
+        <v>1.0023587098964135</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="15"/>
+        <v>1.1296546918498356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -25991,8 +30678,31 @@
       <c r="F205">
         <v>3.2650386520986499E-3</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H205" s="1">
+        <v>42705</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="12"/>
+        <v>0.98128955806597395</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="13"/>
+        <v>1.0814827233885029</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="14"/>
+        <v>1.0026856769518091</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="15"/>
+        <v>1.1298016168306031</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -26011,8 +30721,31 @@
       <c r="F206">
         <v>3.2590941782755399E-3</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H206" s="1">
+        <v>42736</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="12"/>
+        <v>0.98172573975066202</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="13"/>
+        <v>1.081205484004812</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="14"/>
+        <v>1.0025574739456649</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="15"/>
+        <v>1.1299553663035871</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -26031,8 +30764,31 @@
       <c r="F207">
         <v>3.2525383641147502E-3</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H207" s="1">
+        <v>42767</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="12"/>
+        <v>0.98241443926831939</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="13"/>
+        <v>1.0813237354749534</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="14"/>
+        <v>1.0021674233201172</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="15"/>
+        <v>1.1294487057810874</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -26051,8 +30807,31 @@
       <c r="F208">
         <v>3.2508334583538799E-3</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H208" s="1">
+        <v>42795</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="12"/>
+        <v>0.9824371540713448</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="13"/>
+        <v>1.0812287420284377</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="14"/>
+        <v>1.0035070158764354</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="15"/>
+        <v>1.1310782025667241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -26071,8 +30850,31 @@
       <c r="F209">
         <v>3.2479201846708299E-3</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H209" s="1">
+        <v>42826</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="12"/>
+        <v>0.98269177402062291</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="13"/>
+        <v>1.0823434464545623</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="14"/>
+        <v>1.0047461303873764</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="15"/>
+        <v>1.1308765711211279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -26091,8 +30893,31 @@
       <c r="F210">
         <v>3.24541683345499E-3</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H210" s="1">
+        <v>42856</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <f t="shared" ref="J210:J242" si="17">C210/$B210</f>
+        <v>0.98256907285291628</v>
+      </c>
+      <c r="K210">
+        <f t="shared" ref="K210:K242" si="18">D210/$B210</f>
+        <v>1.0819395370372016</v>
+      </c>
+      <c r="L210">
+        <f t="shared" ref="L210:L242" si="19">E210/$B210</f>
+        <v>1.0046045744714724</v>
+      </c>
+      <c r="M210">
+        <f t="shared" ref="M210:M242" si="20">F210/$B210</f>
+        <v>1.1320794074754577</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -26111,8 +30936,31 @@
       <c r="F211">
         <v>3.2406480528035801E-3</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H211" s="1">
+        <v>42887</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="17"/>
+        <v>0.98271709121692685</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="18"/>
+        <v>1.0830527575705151</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="19"/>
+        <v>1.005570450075757</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="20"/>
+        <v>1.1320731180156292</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -26131,8 +30979,31 @@
       <c r="F212">
         <v>3.2350743748821298E-3</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H212" s="1">
+        <v>42917</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="17"/>
+        <v>0.98263645549773848</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="18"/>
+        <v>1.0830718155176198</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="19"/>
+        <v>1.0054480369465988</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="20"/>
+        <v>1.1325218472407566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -26151,8 +31022,31 @@
       <c r="F213">
         <v>3.2279391312338701E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H213" s="1">
+        <v>42948</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="17"/>
+        <v>0.98256681578329153</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="18"/>
+        <v>1.0835083707284485</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="19"/>
+        <v>1.0056711834852776</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="20"/>
+        <v>1.1323964409906231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -26171,8 +31065,31 @@
       <c r="F214">
         <v>3.2286182441259902E-3</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H214" s="1">
+        <v>42979</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="17"/>
+        <v>0.982592384312307</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="18"/>
+        <v>1.0817498247050408</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="19"/>
+        <v>1.0047876563453153</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="20"/>
+        <v>1.1322711179185558</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -26191,8 +31108,31 @@
       <c r="F215">
         <v>3.2217305050533198E-3</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H215" s="1">
+        <v>43009</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="17"/>
+        <v>0.98320851660380071</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="18"/>
+        <v>1.0819605812677044</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="19"/>
+        <v>1.0039753920460199</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="20"/>
+        <v>1.13114752484063</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -26211,8 +31151,31 @@
       <c r="F216">
         <v>3.2263324915523398E-3</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H216" s="1">
+        <v>43040</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="17"/>
+        <v>0.9831286622878489</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="18"/>
+        <v>1.0814592840216211</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="19"/>
+        <v>1.0061467585648269</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="20"/>
+        <v>1.1338799154639549</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -26231,8 +31194,31 @@
       <c r="F217">
         <v>3.2237785419758401E-3</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H217" s="1">
+        <v>43070</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="17"/>
+        <v>0.9832747140530409</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="18"/>
+        <v>1.0805499713066231</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="19"/>
+        <v>1.0057973496734005</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="20"/>
+        <v>1.134261646380206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -26251,8 +31237,31 @@
       <c r="F218">
         <v>3.2174015146875E-3</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H218" s="1">
+        <v>43101</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="17"/>
+        <v>0.98326724372085006</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="18"/>
+        <v>1.0805440934330119</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="19"/>
+        <v>1.0060440655934781</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="20"/>
+        <v>1.1344856293345682</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -26271,8 +31280,31 @@
       <c r="F219">
         <v>3.2126358945329999E-3</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H219" s="1">
+        <v>43132</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="17"/>
+        <v>0.98357141240971968</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="18"/>
+        <v>1.0799621445983887</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="19"/>
+        <v>1.0054075928267325</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="20"/>
+        <v>1.1339081962923494</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -26291,8 +31323,31 @@
       <c r="F220">
         <v>3.2067156378009498E-3</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H220" s="1">
+        <v>43160</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="17"/>
+        <v>0.98355396207095047</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="18"/>
+        <v>1.0799557336486416</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="19"/>
+        <v>1.005622837425485</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="20"/>
+        <v>1.1342640476002088</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -26311,8 +31366,31 @@
       <c r="F221">
         <v>3.2054260573072002E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H221" s="1">
+        <v>43191</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="17"/>
+        <v>0.98295067518347912</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="18"/>
+        <v>1.0797196846761592</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="19"/>
+        <v>1.0062958049194428</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="20"/>
+        <v>1.1342185081015228</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -26331,8 +31409,31 @@
       <c r="F222">
         <v>3.20247780149265E-3</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H222" s="1">
+        <v>43221</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="17"/>
+        <v>0.98282269794444965</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="18"/>
+        <v>1.0790534142836921</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="19"/>
+        <v>1.0060445890493512</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="20"/>
+        <v>1.1348965921573999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -26351,8 +31452,31 @@
       <c r="F223">
         <v>3.1958012698694799E-3</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H223" s="1">
+        <v>43252</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="17"/>
+        <v>0.98307476455480891</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="18"/>
+        <v>1.0789664151789666</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="19"/>
+        <v>1.0059672812267344</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="20"/>
+        <v>1.1348649374829953</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -26371,8 +31495,31 @@
       <c r="F224">
         <v>3.18920053977549E-3</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H224" s="1">
+        <v>43282</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="17"/>
+        <v>0.98310424450345568</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="18"/>
+        <v>1.078992596779218</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="19"/>
+        <v>1.00610022269027</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="20"/>
+        <v>1.1349484381955328</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -26391,8 +31538,31 @@
       <c r="F225">
         <v>3.18297201891493E-3</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H225" s="1">
+        <v>43313</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="17"/>
+        <v>0.98285756548374581</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="18"/>
+        <v>1.0789870193983315</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="19"/>
+        <v>1.0062294231526769</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="20"/>
+        <v>1.1348213475174382</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -26411,8 +31581,31 @@
       <c r="F226">
         <v>3.1763643177217301E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H226" s="1">
+        <v>43344</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="17"/>
+        <v>0.98283714940952971</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="18"/>
+        <v>1.078980934411345</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="19"/>
+        <v>1.0061781726709245</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="20"/>
+        <v>1.1348013432772182</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -26431,8 +31624,31 @@
       <c r="F227">
         <v>3.1697039852549998E-3</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H227" s="1">
+        <v>43374</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="17"/>
+        <v>0.98282792198181068</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="18"/>
+        <v>1.0791066103657136</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="19"/>
+        <v>1.0063253389674456</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="20"/>
+        <v>1.1348058930144898</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -26451,8 +31667,31 @@
       <c r="F228">
         <v>3.1633025240392801E-3</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H228" s="1">
+        <v>43405</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="17"/>
+        <v>0.98291021821500746</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="18"/>
+        <v>1.0791088859406108</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="19"/>
+        <v>1.0063148751566291</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="20"/>
+        <v>1.1348886901832993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -26471,8 +31710,31 @@
       <c r="F229">
         <v>3.1608121070712801E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H229" s="1">
+        <v>43435</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="17"/>
+        <v>0.98277568477767718</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="18"/>
+        <v>1.0794530334943602</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="19"/>
+        <v>1.0071614534443289</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="20"/>
+        <v>1.1348532834076117</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -26491,8 +31753,31 @@
       <c r="F230">
         <v>3.1543363997630302E-3</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H230" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="17"/>
+        <v>0.98281592067511869</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="18"/>
+        <v>1.0803605498377589</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="19"/>
+        <v>1.0071911380923164</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="20"/>
+        <v>1.1347016845278106</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -26511,8 +31796,31 @@
       <c r="F231">
         <v>3.1478766039170899E-3</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H231" s="1">
+        <v>43497</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="17"/>
+        <v>0.98307384708303491</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="18"/>
+        <v>1.081369341462608</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="19"/>
+        <v>1.0075467986982938</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="20"/>
+        <v>1.1344569967835907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -26531,8 +31839,31 @@
       <c r="F232">
         <v>3.1469045191394999E-3</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H232" s="1">
+        <v>43525</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="17"/>
+        <v>0.98308497786799998</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="18"/>
+        <v>1.0806456728124048</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="19"/>
+        <v>1.0075085314880878</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="20"/>
+        <v>1.1356024861476532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -26551,8 +31882,31 @@
       <c r="F233">
         <v>3.1412272379854399E-3</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H233" s="1">
+        <v>43556</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="17"/>
+        <v>0.98365686256283003</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="18"/>
+        <v>1.0806323998547915</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="19"/>
+        <v>1.0073028261532431</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="20"/>
+        <v>1.1354070374423062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -26571,8 +31925,31 @@
       <c r="F234">
         <v>3.1348319747324599E-3</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H234" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="17"/>
+        <v>0.98370505290147636</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="18"/>
+        <v>1.0804984870752028</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="19"/>
+        <v>1.0068952012629089</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="20"/>
+        <v>1.134964343793613</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -26591,8 +31968,31 @@
       <c r="F235">
         <v>3.1323523708280399E-3</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H235" s="1">
+        <v>43617</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="17"/>
+        <v>0.98346463601090472</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="18"/>
+        <v>1.0803397212144885</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="19"/>
+        <v>1.0077338922755674</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="20"/>
+        <v>1.1357000845642948</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -26611,8 +32011,31 @@
       <c r="F236">
         <v>3.1259804810751502E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H236" s="1">
+        <v>43647</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="17"/>
+        <v>0.98346469412483983</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="18"/>
+        <v>1.0806671546744935</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="19"/>
+        <v>1.0078544785620163</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="20"/>
+        <v>1.135668888843786</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -26631,8 +32054,31 @@
       <c r="F237">
         <v>3.1216507488418398E-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H237" s="1">
+        <v>43678</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="17"/>
+        <v>0.98366320401109442</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="18"/>
+        <v>1.0803823506270678</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="19"/>
+        <v>1.007751288574706</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="20"/>
+        <v>1.1359908631876998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -26651,8 +32097,31 @@
       <c r="F238">
         <v>3.1176140930950498E-3</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H238" s="1">
+        <v>43709</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="17"/>
+        <v>0.98365348464291436</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="18"/>
+        <v>1.080684709018878</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="19"/>
+        <v>1.0085245181524995</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="20"/>
+        <v>1.1365019385819621</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -26671,8 +32140,31 @@
       <c r="F239">
         <v>3.1114302202831599E-3</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H239" s="1">
+        <v>43739</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="17"/>
+        <v>0.98365361131593043</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="18"/>
+        <v>1.0808861431579864</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="19"/>
+        <v>1.0085794682506133</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="20"/>
+        <v>1.1365320003879362</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -26691,8 +32183,31 @@
       <c r="F240">
         <v>3.1063055899890201E-3</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H240" s="1">
+        <v>43770</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="17"/>
+        <v>0.98378653624002443</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="18"/>
+        <v>1.0806712445343745</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="19"/>
+        <v>1.008465710977412</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="20"/>
+        <v>1.1366889289674911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -26711,8 +32226,31 @@
       <c r="F241">
         <v>3.1001290748675402E-3</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H241" s="1">
+        <v>43800</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="17"/>
+        <v>0.98386311000198445</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="18"/>
+        <v>1.0806572140694168</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="19"/>
+        <v>1.0084862400464112</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="20"/>
+        <v>1.1366803344671317</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -26730,6 +32268,29 @@
       </c>
       <c r="F242">
         <v>3.0939772693943999E-3</v>
+      </c>
+      <c r="H242" s="1">
+        <v>43831</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="17"/>
+        <v>0.98397212520354882</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="18"/>
+        <v>1.0806265272220665</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="19"/>
+        <v>1.0084603209521836</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="20"/>
+        <v>1.1366452742177786</v>
       </c>
     </row>
   </sheetData>

--- a/data/export/rmse_graphs/rmse_graphs.xlsx
+++ b/data/export/rmse_graphs/rmse_graphs.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexmoran/Desktop/thesis/data/export/rmse_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83CF7B-E9F9-2140-904A-E0F70CB66D70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283D486-4201-CA49-8FFB-4524C771E5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1200" windowWidth="27640" windowHeight="16800" activeTab="3" xr2:uid="{0F3A2CF4-6689-C543-B2F2-8F95BC64D9C6}"/>
+    <workbookView xWindow="4520" yWindow="1200" windowWidth="27640" windowHeight="16800" activeTab="5" xr2:uid="{0F3A2CF4-6689-C543-B2F2-8F95BC64D9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="1" r:id="rId1"/>
     <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Table 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Table 5" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -68,12 +70,78 @@
   <si>
     <t>VAR</t>
   </si>
+  <si>
+    <t>TABLE 1</t>
+  </si>
+  <si>
+    <t>Fit and forecast results on simulated AR(1) time series</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>ARIMA(AIC)</t>
+  </si>
+  <si>
+    <t>Base Tree</t>
+  </si>
+  <si>
+    <t>Hybrid Tree</t>
+  </si>
+  <si>
+    <t>Modified Tree</t>
+  </si>
+  <si>
+    <t>Fit RMSE</t>
+  </si>
+  <si>
+    <t>Forecast RMSE</t>
+  </si>
+  <si>
+    <t>Notes: The first column refers to the ARIMA function optimized by AIC; the last three columns refer to different types of trees: the base tree defined in Section 1, the hybrid tree which borrows the objective function from the base tree but predicts based on an AR(1) assumption, and the modified tree which uses an AR(1) objective function as well as an AR(1) prediction. The first row refers to the in-sample fit provided by each model; the last row refers to an out-of-sample one-period ahead forecast on the last 100 observations generated, in a time series of 511 observations. The lowest RMSE in each row is bolded.</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers refer to the RMSE generated from each model, divided by the RMSE provided by the naïve model. </t>
+  </si>
+  <si>
+    <t>For the actual RMSEs, see Appendix 4.</t>
+  </si>
+  <si>
+    <t>TABLE 2</t>
+  </si>
+  <si>
+    <t>RMSE Forecast results on US monthly inflation data, January 1999 – January 2020</t>
+  </si>
+  <si>
+    <t>Modified forest</t>
+  </si>
+  <si>
+    <t>“Base” Forest</t>
+  </si>
+  <si>
+    <t>Notes: The numbers are RMSEs on a one-month forward forecast from January 1999 to January 2020, performed by five different models. The first column refers to the modified random forest I describe in Section 3. The ARIMA model is optimized by AIC. The “base” random forest is as described in Section 2. The naïve forecast simply predicts that next month inflation will be the same as current month inflation. RMSEs for the random forest and the “base” random forest are not replicable.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +162,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -120,11 +207,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,6 +282,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -51526,14 +51755,576 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B8E62-0567-A24F-B738-76B8EE298C37}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="12">
+        <v>1.0162899999999999</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1.029163</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.97160349999999995</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.015209</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1.0257080000000001</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="12">
+        <v>1.0528029999999999</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.16591</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.0922000000000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.036251</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1.0631930000000001</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="44" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="26"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1.0162899999999999</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.029163</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.97160349999999995</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1.015209</v>
+      </c>
+      <c r="G21">
+        <v>1.0257080000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="31">
+        <f>C21/$G21</f>
+        <v>0.99081804958136221</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" ref="K21:N22" si="0">D21/$G21</f>
+        <v>1.0033684050431506</v>
+      </c>
+      <c r="L21" s="31">
+        <f t="shared" si="0"/>
+        <v>0.94725155697332952</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="0"/>
+        <v>0.98976414340143581</v>
+      </c>
+      <c r="N21" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1.0528029999999999</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.16591</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1.0922000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.036251</v>
+      </c>
+      <c r="G22">
+        <v>1.0631930000000001</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="31">
+        <f>C22/$G22</f>
+        <v>0.99022755040712263</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0966118098971682</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0272829110048693</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="0"/>
+        <v>0.97465935159467754</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF206A27-BE27-7B40-AB71-FDC0773A40EB}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35">
+        <v>2.673159E-3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2.7167929999999999E-3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.740606E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.9361349999999999E-3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3.0884319999999999E-3</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="44" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="29">
+        <v>2.673159E-3</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2.7167929999999999E-3</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2.740606E-3</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2.9361349999999999E-3</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3.0884319999999999E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <f>B10/$F10</f>
+        <v>0.86553921213094542</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:L10" si="0">C10/$F10</f>
+        <v>0.87966741699347761</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.88737780206914063</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95068792189693674</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A740F22-8CC2-D148-8023-2A07839888DC}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G1" sqref="G1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -51583,23 +52374,23 @@
       <c r="E2" s="3">
         <v>3.0883999999999998E-3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <f>A2/$E2</f>
         <v>0.86556145576997812</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f t="shared" ref="H2:K2" si="0">B2/$E2</f>
         <v>0.87967879808314997</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
         <v>0.88738505374951437</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
         <v>0.95068643958036536</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -51620,23 +52411,23 @@
       <c r="E3" s="3">
         <v>4.1520999999999997E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G9" si="1">A3/$E3</f>
         <v>0.72018978348305684</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H9" si="2">B3/$E3</f>
         <v>0.74225090917848802</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I9" si="3">C3/$E3</f>
         <v>0.76823775920618487</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J9" si="4">D3/$E3</f>
         <v>0.71527660701813545</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K9" si="5">E3/$E3</f>
         <v>1</v>
       </c>
@@ -51657,23 +52448,23 @@
       <c r="E4" s="3">
         <v>4.1339999999999997E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>0.69871794871794879</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>0.73284954039671024</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
         <v>0.76814223512336721</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <f t="shared" si="4"/>
         <v>0.70060474117077898</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -51694,26 +52485,33 @@
       <c r="E5" s="3">
         <v>4.2874999999999996E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>0.70413994169096217</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>0.70745189504373174</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
         <v>0.74920116618075816</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f t="shared" si="4"/>
         <v>0.68403498542274066</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -51731,23 +52529,23 @@
       <c r="E7" s="3">
         <v>0.1402477</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>1.0068699878857195</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0.96247567696297331</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <f t="shared" si="3"/>
         <v>1.0173207831572282</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f t="shared" si="4"/>
         <v>1.0014217701965877</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -51768,23 +52566,23 @@
       <c r="E8" s="3">
         <v>0.23989489999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>0.86876586371781983</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>0.92819397161006767</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>0.87163837163691271</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="4"/>
         <v>0.97719543016545996</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -51805,23 +52603,23 @@
       <c r="E9" s="3">
         <v>4.0153000000000003E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>0.6176624411625532</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>0.32425970662217019</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <f t="shared" si="3"/>
         <v>0.7150399721066919</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <f t="shared" si="4"/>
         <v>0.62035215301471858</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -51865,19 +52663,19 @@
       <c r="D12">
         <v>3.0883999999999998E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f>A12/$D12</f>
         <v>0.87116306177956238</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <f t="shared" ref="H12:J12" si="6">B12/$D12</f>
         <v>0.679283771532185</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <f t="shared" si="6"/>
         <v>0.92711436342442699</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
